--- a/module_2/Lab_17_Regression-in-Excel/Task1_data.xlsx
+++ b/module_2/Lab_17_Regression-in-Excel/Task1_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinym/Documents/IronHack/DAFT_1022/module_2/Lab_17_Regression-in-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAD247-96F2-4FAD-ACA9-613DC9918CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5BDDE-0274-4A4C-8768-DF3A0AA7AF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Prediction" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$W$187</definedName>
@@ -27,16 +28,42 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="436">
   <si>
     <t>Iraq</t>
   </si>
@@ -1281,12 +1308,93 @@
       <t xml:space="preserve">Create a bar chart that shows 10 countries with the lowest results in 2019. The chart should have the title, axes and data labels. Explain the chart </t>
     </r>
   </si>
+  <si>
+    <t>Create a line chart that shows the dynamics of the indicator for Eritrea and Bhutan. The chart should have the title, axes and data labels. Explain the chart</t>
+  </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,6 +1427,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1328,7 +1450,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1336,11 +1458,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1358,6 +1500,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,7 +1529,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1448,7 +1599,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-GR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1510,7 +1661,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-GR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1696,7 +1847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1734,7 +1885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38603824"/>
@@ -1816,7 +1967,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
+              <a:endParaRPr lang="en-GR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1848,7 +1999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-GR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38605072"/>
@@ -1896,7 +2047,630 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of pop with access to electricity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eritrea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$B$40:$U$40</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000 [YR2000]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001 [YR2001]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002 [YR2002]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003 [YR2003]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004 [YR2004]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005 [YR2005]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006 [YR2006]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007 [YR2007]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 [YR2008]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009 [YR2009]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010 [YR2010]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011 [YR2011]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012 [YR2012]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013 [YR2013]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014 [YR2014]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015 [YR2015]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016 [YR2016]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017 [YR2017]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018 [YR2018]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 [YR2019]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$B$41:$U$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29.2042427062988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.301435470581101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.469783782958999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.538585662841797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.5957221984863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.643730163574197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.688686370849602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.736824035644503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.794387817382798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.867607116699197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.962718963622997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.084251403808601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.229896545410199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.395633697509801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.577445983886697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.771312713622997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.973213195800803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.1791381835938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.385730743408203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DB4-AC4A-8785-22135A4D268F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhutan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistics!$B$40:$U$40</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000 [YR2000]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001 [YR2001]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002 [YR2002]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003 [YR2003]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004 [YR2004]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005 [YR2005]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006 [YR2006]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007 [YR2007]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008 [YR2008]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009 [YR2009]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010 [YR2010]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011 [YR2011]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012 [YR2012]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013 [YR2013]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014 [YR2014]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015 [YR2015]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016 [YR2016]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017 [YR2017]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018 [YR2018]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 [YR2019]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$B$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>31.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.091510772705099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.043014526367202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.916454315185497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.8081116441343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.746795654296903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.565086364746094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.485244750976605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.282910874897794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.687995910644503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.371147155761705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.399482727050795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.443893432617202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.500358581542997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.968772888183594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DB4-AC4A-8785-22135A4D268F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="477291712"/>
+        <c:axId val="477293360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="477291712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477293360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="477293360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="477291712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-GR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1908,6 +2682,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2450,6 +3264,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2483,6 +3813,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1060450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C7F6AF-7C77-36B6-9334-5F22D5F9DE51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2801,16 +4167,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W187"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
@@ -2881,7 +4247,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2952,7 +4318,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -3023,7 +4389,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -3094,7 +4460,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -3165,7 +4531,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3236,7 +4602,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3307,7 +4673,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3378,7 +4744,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -3449,7 +4815,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>380</v>
       </c>
@@ -3520,7 +4886,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -3591,7 +4957,7 @@
         <v>26.907184600830099</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3662,7 +5028,7 @@
         <v>27.6492099761963</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3733,7 +5099,7 @@
         <v>29.616161346435501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -3804,7 +5170,7 @@
         <v>31.040412902831999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -3875,7 +5241,7 @@
         <v>36.033195495605497</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>309</v>
       </c>
@@ -3946,7 +5312,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -4017,7 +5383,7 @@
         <v>37.782436370849602</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -4088,7 +5454,7 @@
         <v>40.318740844726598</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -4159,7 +5525,7 @@
         <v>41.089107513427699</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -4230,7 +5596,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -4301,7 +5667,7 @@
         <v>42.418388366699197</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +5738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -4443,7 +5809,7 @@
         <v>44.640678405761697</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4514,7 +5880,7 @@
         <v>48.021247863769503</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>388</v>
       </c>
@@ -4585,7 +5951,7 @@
         <v>50.385730743408203</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4656,7 +6022,7 @@
         <v>52.441097259521499</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -4727,7 +6093,7 @@
         <v>55.195117950439503</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -4798,7 +6164,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -4869,7 +6235,7 @@
         <v>59.921287536621101</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +6306,7 @@
         <v>61.275936126708999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>396</v>
       </c>
@@ -5011,7 +6377,7 @@
         <v>63.452312469482401</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -5082,7 +6448,7 @@
         <v>63.464511871337898</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>341</v>
       </c>
@@ -5153,7 +6519,7 @@
         <v>64.666236877441406</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -5224,7 +6590,7 @@
         <v>68.532188415527301</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -5295,7 +6661,7 @@
         <v>68.550109863281307</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -5366,7 +6732,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5437,7 +6803,7 @@
         <v>70.183181762695298</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +6874,7 @@
         <v>70.258491516113295</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -5579,7 +6945,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>378</v>
       </c>
@@ -5650,7 +7016,7 @@
         <v>72.751701354980497</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>394</v>
       </c>
@@ -5721,7 +7087,7 @@
         <v>73.914360046386705</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -5792,7 +7158,7 @@
         <v>75.181907653808594</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -5863,7 +7229,7 @@
         <v>92.021690368652301</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -5934,7 +7300,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -6005,7 +7371,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>295</v>
       </c>
@@ -6076,7 +7442,7 @@
         <v>92.779525756835895</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -6147,7 +7513,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -6218,7 +7584,7 @@
         <v>94.716178894042997</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +7655,7 @@
         <v>95.428741455078097</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -6360,7 +7726,7 @@
         <v>95.533538818359403</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -6431,7 +7797,7 @@
         <v>95.628623962402301</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -6502,7 +7868,7 @@
         <v>95.724571228027301</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6573,7 +7939,7 @@
         <v>95.834556579589801</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -6644,7 +8010,7 @@
         <v>96.3031005859375</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -6715,7 +8081,7 @@
         <v>99.383773803710895</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -6786,7 +8152,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -6857,7 +8223,7 @@
         <v>99.547775268554702</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -6928,7 +8294,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -6999,7 +8365,7 @@
         <v>99.635391235351605</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -7070,7 +8436,7 @@
         <v>99.71</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>299</v>
       </c>
@@ -7141,7 +8507,7 @@
         <v>99.766273498535199</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -7212,7 +8578,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7283,7 +8649,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -7354,7 +8720,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -7425,7 +8791,7 @@
         <v>99.881752014160199</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>284</v>
       </c>
@@ -7496,7 +8862,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -7567,7 +8933,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -7638,7 +9004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>313</v>
       </c>
@@ -7709,7 +9075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -7780,7 +9146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7851,7 +9217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>373</v>
       </c>
@@ -7922,7 +9288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -7993,7 +9359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>312</v>
       </c>
@@ -8064,7 +9430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>217</v>
       </c>
@@ -8135,7 +9501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -8206,7 +9572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>356</v>
       </c>
@@ -8277,7 +9643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -8348,7 +9714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -8419,7 +9785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>267</v>
       </c>
@@ -8490,7 +9856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -8561,7 +9927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -8632,7 +9998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -8703,7 +10069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8774,7 +10140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -8845,7 +10211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -8916,7 +10282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -8987,7 +10353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -9058,7 +10424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -9129,7 +10495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>365</v>
       </c>
@@ -9200,7 +10566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -9271,7 +10637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -9342,7 +10708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -9413,7 +10779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -9484,7 +10850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -9555,7 +10921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -9626,7 +10992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +11063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -9768,7 +11134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -9839,7 +11205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -9910,7 +11276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -9981,7 +11347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -10052,7 +11418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -10123,7 +11489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -10194,7 +11560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10265,7 +11631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -10336,7 +11702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -10407,7 +11773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -10478,7 +11844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>346</v>
       </c>
@@ -10549,7 +11915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>195</v>
       </c>
@@ -10620,7 +11986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -10691,7 +12057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -10762,7 +12128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>330</v>
       </c>
@@ -10833,7 +12199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -10904,7 +12270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -10975,7 +12341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -11046,7 +12412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -11117,7 +12483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -11188,7 +12554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -11259,7 +12625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +12696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -11401,7 +12767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -11472,7 +12838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -11543,7 +12909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -11614,7 +12980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -11685,7 +13051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -11756,7 +13122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -11827,7 +13193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -11898,7 +13264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>374</v>
       </c>
@@ -11969,7 +13335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>279</v>
       </c>
@@ -12040,7 +13406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>391</v>
       </c>
@@ -12111,7 +13477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -12182,7 +13548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -12253,7 +13619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -12324,7 +13690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -12395,7 +13761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -12466,7 +13832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -12537,7 +13903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -12608,7 +13974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -12679,7 +14045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -12750,7 +14116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>228</v>
       </c>
@@ -12821,7 +14187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>387</v>
       </c>
@@ -12892,7 +14258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -12963,7 +14329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>335</v>
       </c>
@@ -13034,7 +14400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>219</v>
       </c>
@@ -13105,7 +14471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -13176,7 +14542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -13247,7 +14613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -13318,7 +14684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>253</v>
       </c>
@@ -13389,7 +14755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>213</v>
       </c>
@@ -13460,7 +14826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -13531,7 +14897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -13602,7 +14968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>385</v>
       </c>
@@ -13673,7 +15039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -13744,7 +15110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -13815,7 +15181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -13886,7 +15252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>366</v>
       </c>
@@ -13957,7 +15323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>377</v>
       </c>
@@ -14028,7 +15394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>44</v>
       </c>
@@ -14099,7 +15465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -14170,7 +15536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>300</v>
       </c>
@@ -14241,7 +15607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -14312,7 +15678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -14383,7 +15749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -14454,7 +15820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>240</v>
       </c>
@@ -14525,7 +15891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>251</v>
       </c>
@@ -14596,7 +15962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -14667,7 +16033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -14738,7 +16104,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -14809,7 +16175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -14880,7 +16246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -14951,7 +16317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -15022,7 +16388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -15093,7 +16459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>105</v>
       </c>
@@ -15164,7 +16530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>229</v>
       </c>
@@ -15235,7 +16601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -15306,7 +16672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -15377,7 +16743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -15448,7 +16814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>225</v>
       </c>
@@ -15519,7 +16885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -15590,7 +16956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -15661,7 +17027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>342</v>
       </c>
@@ -15732,7 +17098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>234</v>
       </c>
@@ -15803,7 +17169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>238</v>
       </c>
@@ -15874,7 +17240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -15945,7 +17311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -16016,7 +17382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -16099,43 +17465,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460596BC-2D51-4ADE-9401-FC3717B4C66D}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="44" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="55" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="82" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="97" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="105" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="115" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="119" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="123" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="140" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="153" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="155" max="156" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="160" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="167" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="171" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="173" max="180" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="192" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="199" max="203" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="205" max="214" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="216" max="231" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="233" max="238" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="242" max="245" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="256" max="258" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="260" max="261" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="263" max="265" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="267" max="269" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="271" max="278" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="281" max="290" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="296" max="298" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -16220,7 +17685,7 @@
         <v>2019 [YR2019]</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
@@ -16305,12 +17770,12 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>404</v>
       </c>
@@ -16319,7 +17784,7 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>405</v>
       </c>
@@ -16328,15 +17793,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
@@ -16345,7 +17810,7 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>406</v>
       </c>
@@ -16355,20 +17820,20 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -16376,7 +17841,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -16384,7 +17849,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -16392,7 +17857,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -16400,7 +17865,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -16408,7 +17873,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -16416,7 +17881,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -16424,7 +17889,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -16432,7 +17897,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -16440,7 +17905,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>380</v>
       </c>
@@ -16448,12 +17913,217 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>220</v>
       </c>
       <c r="B31" s="8">
         <v>26.907184600830099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>384</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>383</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" t="s">
+        <v>372</v>
+      </c>
+      <c r="I40" t="s">
+        <v>386</v>
+      </c>
+      <c r="J40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>230</v>
+      </c>
+      <c r="M40" t="s">
+        <v>260</v>
+      </c>
+      <c r="N40" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" t="s">
+        <v>210</v>
+      </c>
+      <c r="P40" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>263</v>
+      </c>
+      <c r="R40" t="s">
+        <v>190</v>
+      </c>
+      <c r="S40" t="s">
+        <v>212</v>
+      </c>
+      <c r="T40" t="s">
+        <v>235</v>
+      </c>
+      <c r="U40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41">
+        <v>29.2042427062988</v>
+      </c>
+      <c r="C41">
+        <v>30.301435470581101</v>
+      </c>
+      <c r="D41">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E41">
+        <v>32.469783782958999</v>
+      </c>
+      <c r="F41">
+        <v>33.538585662841797</v>
+      </c>
+      <c r="G41">
+        <v>34.5957221984863</v>
+      </c>
+      <c r="H41">
+        <v>35.643730163574197</v>
+      </c>
+      <c r="I41">
+        <v>36.688686370849602</v>
+      </c>
+      <c r="J41">
+        <v>37.736824035644503</v>
+      </c>
+      <c r="K41">
+        <v>38.794387817382798</v>
+      </c>
+      <c r="L41">
+        <v>39.867607116699197</v>
+      </c>
+      <c r="M41">
+        <v>40.962718963622997</v>
+      </c>
+      <c r="N41">
+        <v>42.084251403808601</v>
+      </c>
+      <c r="O41">
+        <v>43.229896545410199</v>
+      </c>
+      <c r="P41">
+        <v>44.395633697509801</v>
+      </c>
+      <c r="Q41">
+        <v>45.577445983886697</v>
+      </c>
+      <c r="R41">
+        <v>46.771312713622997</v>
+      </c>
+      <c r="S41">
+        <v>47.973213195800803</v>
+      </c>
+      <c r="T41">
+        <v>49.1791381835938</v>
+      </c>
+      <c r="U41">
+        <v>50.385730743408203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42">
+        <v>31.15</v>
+      </c>
+      <c r="C42">
+        <v>40.091510772705099</v>
+      </c>
+      <c r="D42">
+        <v>44.043014526367202</v>
+      </c>
+      <c r="E42">
+        <v>41.1</v>
+      </c>
+      <c r="F42">
+        <v>51.916454315185497</v>
+      </c>
+      <c r="G42">
+        <v>59.8081116441343</v>
+      </c>
+      <c r="H42">
+        <v>59.746795654296903</v>
+      </c>
+      <c r="I42">
+        <v>71.8</v>
+      </c>
+      <c r="J42">
+        <v>67.565086364746094</v>
+      </c>
+      <c r="K42">
+        <v>71.485244750976605</v>
+      </c>
+      <c r="L42">
+        <v>73.282910874897794</v>
+      </c>
+      <c r="M42">
+        <v>81.687995910644503</v>
+      </c>
+      <c r="N42">
+        <v>91.5</v>
+      </c>
+      <c r="O42">
+        <v>87.371147155761705</v>
+      </c>
+      <c r="P42">
+        <v>91.399482727050795</v>
+      </c>
+      <c r="Q42">
+        <v>95.443893432617202</v>
+      </c>
+      <c r="R42">
+        <v>99.500358581542997</v>
+      </c>
+      <c r="S42">
+        <v>97.7</v>
+      </c>
+      <c r="T42">
+        <v>99.968772888183594</v>
+      </c>
+      <c r="U42">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -16461,4 +18131,497 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2596CECC-F8C8-7341-8AF9-C740DC76F610}">
+  <dimension ref="A1:U26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1">
+        <v>2000</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+      <c r="D1">
+        <v>2002</v>
+      </c>
+      <c r="E1">
+        <v>2003</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2006</v>
+      </c>
+      <c r="I1">
+        <v>2007</v>
+      </c>
+      <c r="J1">
+        <v>2008</v>
+      </c>
+      <c r="K1">
+        <v>2009</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <v>2014</v>
+      </c>
+      <c r="Q1">
+        <v>2015</v>
+      </c>
+      <c r="R1">
+        <v>2016</v>
+      </c>
+      <c r="S1">
+        <v>2017</v>
+      </c>
+      <c r="T1">
+        <v>2018</v>
+      </c>
+      <c r="U1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <v>2.4396891593933101</v>
+      </c>
+      <c r="C2">
+        <v>2.8013172149658199</v>
+      </c>
+      <c r="D2">
+        <v>3.1546571254730198</v>
+      </c>
+      <c r="E2">
+        <v>3.4985325336456299</v>
+      </c>
+      <c r="F2">
+        <v>3.8317673206329301</v>
+      </c>
+      <c r="G2">
+        <v>3.2073170731707301</v>
+      </c>
+      <c r="H2">
+        <v>2.66</v>
+      </c>
+      <c r="I2">
+        <v>4.77516794204712</v>
+      </c>
+      <c r="J2">
+        <v>4.8</v>
+      </c>
+      <c r="K2">
+        <v>5.4097371101379403</v>
+      </c>
+      <c r="L2">
+        <v>5.3</v>
+      </c>
+      <c r="M2">
+        <v>6.1069364547729501</v>
+      </c>
+      <c r="N2">
+        <v>6.5</v>
+      </c>
+      <c r="O2">
+        <v>6.9</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>8.4030895233154297</v>
+      </c>
+      <c r="R2">
+        <v>9.2517995834350604</v>
+      </c>
+      <c r="S2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T2">
+        <v>10.598614692688001</v>
+      </c>
+      <c r="U2">
+        <v>11.0647974014282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="str" cm="1">
+        <f t="array" ref="A6:B26">TRANSPOSE(A1:U2)</f>
+        <v>Country Name</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Burundi</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7">
+        <v>2.4396891593933101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>2.8013172149658199</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>3.1546571254730198</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.96549393003135631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>3.4985325336456299</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.9321785289273935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>3.8317673206329301</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.9284106694233597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>3.2073170731707301</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.72721545352936157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>2.66</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>4.77516794204712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>4.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>5.4097371101379403</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>5.3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>130.83700480276343</v>
+      </c>
+      <c r="G17" s="10">
+        <v>130.83700480276343</v>
+      </c>
+      <c r="H17" s="10">
+        <v>247.40267728386559</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.8111632716467923E-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>6.1069364547729501</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="10">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9.5191616853344705</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.52884231585191499</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="11">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11">
+        <v>140.3561664880979</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>8.4030895233154297</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="10">
+        <v>-885.4879573321524</v>
+      </c>
+      <c r="F22" s="10">
+        <v>56.668546704658894</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-15.625739653199078</v>
+      </c>
+      <c r="H22" s="10">
+        <v>6.4927968404850211E-12</v>
+      </c>
+      <c r="I22" s="10">
+        <v>-1004.5441560923989</v>
+      </c>
+      <c r="J22" s="10">
+        <v>-766.4317585719059</v>
+      </c>
+      <c r="K22" s="10">
+        <v>-1004.5441560923989</v>
+      </c>
+      <c r="L22" s="10">
+        <v>-766.4317585719059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>9.2517995834350604</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.44356214406016808</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2.8200205722384981E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>15.72903929945709</v>
+      </c>
+      <c r="H23" s="11">
+        <v>5.8111632716467705E-12</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.38431571031867806</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.50280857780165811</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.38431571031867806</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.50280857780165811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>10.598614692688001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>11.0647974014282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>